--- a/experiments/dbscan-ajk/sbert/0.3/prediction.xlsx
+++ b/experiments/dbscan-ajk/sbert/0.3/prediction.xlsx
@@ -468,287 +468,287 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,67 +778,67 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,57 +858,57 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,267 +938,267 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,537 +1208,537 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,1207 +1748,1207 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,197 +2958,197 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,17 +3158,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,197 +3188,197 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,1557 +3388,1557 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>34</v>
+        <v>106</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>44</v>
+        <v>109</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>54</v>
+        <v>113</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>55</v>
+        <v>114</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>57</v>
+        <v>115</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>62</v>
+        <v>115</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>65</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>69</v>
+        <v>120</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>69</v>
+        <v>120</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>82</v>
+        <v>125</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>93</v>
+        <v>138</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>100</v>
+        <v>146</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4978,247 +4978,247 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>104</v>
+        <v>149</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>107</v>
+        <v>159</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>107</v>
+        <v>17</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>109</v>
+        <v>160</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>109</v>
+        <v>160</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>109</v>
+        <v>161</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -5228,1041 +5228,1041 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>115</v>
+        <v>152</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>119</v>
+        <v>17</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>126</v>
+        <v>163</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>132</v>
+        <v>17</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>133</v>
+        <v>166</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>144</v>
+        <v>80</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>158</v>
+        <v>181</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>173</v>
+        <v>10</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>174</v>
+        <v>85</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>175</v>
+        <v>10</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>176</v>
+        <v>17</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>177</v>
+        <v>136</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>178</v>
+        <v>43</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>179</v>
+        <v>43</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>180</v>
+        <v>43</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>188</v>
+        <v>17</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>189</v>
+        <v>17</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>190</v>
+        <v>17</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>191</v>
+        <v>17</v>
       </c>
     </row>
     <row r="584">
